--- a/medicine/Mort/Décès_en_1965/Décès_en_1965.xlsx
+++ b/medicine/Mort/Décès_en_1965/Décès_en_1965.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1965</t>
+          <t>Décès_en_1965</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1965</t>
+          <t>Décès_en_1965</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Maurice Bismouth, peintre franco-tunisien (° 1891).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Maurice Bismouth, peintre franco-tunisien (° 1891).
 Jane Chauleur-Ozeel, peintre et aquarelliste française (° 26 juillet 1879).
 Oscar Chauvaux, peintre français d'origine belge (° 19 mars 1874).
 Georges Darlan, homme politique centrafricain (° 1920).
@@ -537,9 +554,43 @@
 Jean-Claude Dragomir, peintre français (° vers 1920).
 Jacques Simon, peintre et graveur français (° 21 novembre 1875).
 Leone Tommasi, peintre et sculpteur italien  (° 1903).
-Carlo Zocchi, peintre italien (° 1894).
-Janvier
-4 janvier : Thomas Stearns Eliot, écrivain britannique (° 26 septembre 1888).
+Carlo Zocchi, peintre italien (° 1894).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1965</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1965</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>4 janvier : Thomas Stearns Eliot, écrivain britannique (° 26 septembre 1888).
 5 janvier : Emmanuel le Calligraphe, peintre d'art brut et écrivain français (° 9 mars 1908).
 9 janvier : Maggy Monier, peintre et illustratrice française (° 22 décembre 1887).
 12 janvier : Barry K. Barnes, acteur britannique ( ° 27 décembre 1906).
@@ -554,9 +605,43 @@
 28 janvier : Maxime Weygand, général français (° 21 janvier 1867).
 29 janvier : Sante Zanon, compositeur italien (° 2 février 1899).
 30 janvier : Bernard Fleetwood-Walker, peintre britannique (° 22 mars 1893).
-31 janvier : Isabella Preston, appelée la « reine de l’horticulture ornementale » (° 4 septembre 1881).
-Février
-2 février : George Neville Watson, mathématicien britannique (° 31 janvier 1886).
+31 janvier : Isabella Preston, appelée la « reine de l’horticulture ornementale » (° 4 septembre 1881).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1965</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1965</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2 février : George Neville Watson, mathématicien britannique (° 31 janvier 1886).
 4 février : André Dignimont, illustrateur, peintre et graveur français (° 22 août 1891).
 5 février : Irving Bacon, acteur américain (° 6 septembre 1893).
 7 février : Władysław Jarocki, peintre polonais (° 6 juin 1879).
@@ -574,11 +659,45 @@
 Horace Colmaire, peintre français (° 6 juin 1875).
 Carlos Galicia, footballeur espagnol (° 24 mars 1903).
 23 février : Stan Laurel, acteur américain (° 16 juin 1890).
-27 février : Gustave Alaux, peintre et illustrateur français (° 21 août 1887).
-Mars
-1er mars : Brace Beemer, acteur américain (° 9 décembre 1902).
+27 février : Gustave Alaux, peintre et illustrateur français (° 21 août 1887).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1965</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1965</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er mars : Brace Beemer, acteur américain (° 9 décembre 1902).
 3 mars : Arturo Cella, footballeur espagnol (° 19 février 1896).
-5 mars : Meflah Aoued, footballeur algérien (° 7 mai 1906)[1].
+5 mars : Meflah Aoued, footballeur algérien (° 7 mai 1906).
 11 mars : Clemente Micara, cardinal italien, vicaire général de Rome (° 24 décembre 1879).
 12 mars : Anna Blake Mezquida, femme de lettres américaine (° 1er septembre 1883).
 14 mars : Lucie Rogues, peintre française (° 19 janvier 1871).
@@ -586,9 +705,43 @@
 20 mars : Emilio Petacci, acteur italien (° 25 janvier 1886).
 26 mars :  Adriano Gajoni, peintre italien (° 29 octobre 1913).
 30 mars : Maurilio Fossati, cardinal italien, archevêque de Turin (° 24 mai 1876).
-31 mars : Mario Mafai, peintre italien (° 12 février 1902).
-Avril
-6 avril : Gustave Pasquier, coureur cycliste français (° 7 octobre 1877).
+31 mars : Mario Mafai, peintre italien (° 12 février 1902).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1965</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1965</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>6 avril : Gustave Pasquier, coureur cycliste français (° 7 octobre 1877).
 10 avril : La Belle Otero, chanteuse, danseuse et courtisane de la Belle Époque (° 4 novembre 1868).
 14 avril : Leonard Mudie, acteur anglais (° 11 avril 1882).
 15 avril : Auguste Buisseret, homme politique belge (° 18 août 1888)
@@ -608,9 +761,43 @@
 27 avril :
 Amo Bek-Nazarov, acteur et réalisateur russe puis soviétique (° 19 mai 1891).
 Otto Tressler, acteur germano-autrichien (° 13 avril 1871).
-30 avril : Claude Guyot, enseignant, résistant et homme politique français (° 28 février 1890).
-Mai
-2 mai : Lucile Swan, sculptrice et artiste américaine (° 10 mai 1890).
+30 avril : Claude Guyot, enseignant, résistant et homme politique français (° 28 février 1890).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1965</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1965</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2 mai : Lucile Swan, sculptrice et artiste américaine (° 10 mai 1890).
 6 mai : Park Soo-keun, peintre coréen (° 21 février 1914).
 8 mai : Wally Hardinge, joueur de cricket et de football britannique (° 25 février 1886).
 12 mai :
@@ -620,9 +807,43 @@
 20 mai : Charles Camoin, peintre français (° 23 septembre 1879).
 25 mai : Gustave Lorain, peintre et illustrateur français (° 8 septembre 1882).
 27 mai : Antonio Ligabue, peintre italien (° 18 décembre 1899).
-30 mai : Louis Hjelmslev, linguiste danois (° 3 octobre 1899).
-Juin
-9 juin : Charles Edmond Kayser, aquarelliste, graveur, aquafortiste et lithographe français (° 27 mars 1882).
+30 mai : Louis Hjelmslev, linguiste danois (° 3 octobre 1899).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1965</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1965</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>9 juin : Charles Edmond Kayser, aquarelliste, graveur, aquafortiste et lithographe français (° 27 mars 1882).
 13 juin : Martin Buber, philosophe israelien d'origine autrichienne (° 8 février 1878).
 15 juin : Henry Chapront, peintre et illustrateur français (° 26 février 1876).
 20 juin : Bernard Baruch, homme d'affaires et homme politique américain (° 19 août 1870).
@@ -631,9 +852,43 @@
 Maurice Brocco, coureur cycliste français (° 28 janvier 1885).
 Léo Fontan, peintre, illustrateur et décorateur français (° 23 septembre 1884).
 Masamitsu Ōshima, herpétologiste et ichtyologiste japonais (° 21 juin 1884).
-29 juin : Joseph Ryelandt, compositeur et professeur de musique belge (° 7 avril 1870).
-Juillet
-5 juillet : Jean Aujame, peintre français (° 12 mai 1905).
+29 juin : Joseph Ryelandt, compositeur et professeur de musique belge (° 7 avril 1870).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1965</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1965</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>5 juillet : Jean Aujame, peintre français (° 12 mai 1905).
 8 juillet : Ernest Fisk, homme d'affaires et entrepreneur australien d'origine anglaise (° 8 août 1886).
 9 juillet : Georges Artemoff, peintre et sculpteur français d'origine russe (° 17 février 1892).
 10 juillet :
@@ -643,9 +898,43 @@
 17 juillet : Eugène Bigot, chef d'orchestre et compositeur français (° 28 février 1888).
 27 juillet : Maurice Yvain, compositeur français (° 12 février 1891).
 29 juillet : Jules Masselis, coureur cycliste belge (° 19 novembre 1886).
-31 juillet : Thérèse Geraldy, peintre française (° 18 juin 1884).
-Août
-1er août : Kiyoshi Nobutoki, compositeur, violoncelliste et professeur japonais (° 29 décembre 1887).
+31 juillet : Thérèse Geraldy, peintre française (° 18 juin 1884).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1965</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1965</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1er août : Kiyoshi Nobutoki, compositeur, violoncelliste et professeur japonais (° 29 décembre 1887).
 4 août : Jimmy James, acteur britannique (° 20 mai 1892).
 7 août : Jean Dargassies, coureur cycliste français (° 15 juillet 1872).
 10 août : Sloan Doak, cavalier de concours complet américain (° 28 janvier 1886).
@@ -659,9 +948,43 @@
 27 août : Le Corbusier, architecte, urbaniste d'origine suisse (° 6 octobre 1887).
 29 août : Wilhelm Gimmi, peintre, dessinateur et lithographe suisse (° 7 août 1886).
 30 août : Adrien Bruneau, peintre français (° 20 juin 1874).
-31 août : Henry Déziré, peintre français (° 6 février 1878).
-Septembre
-2 septembre : Joseph Chauleur, peintre français (° 16 mars 1878).
+31 août : Henry Déziré, peintre français (° 6 février 1878).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1965</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1965</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2 septembre : Joseph Chauleur, peintre français (° 16 mars 1878).
 3 septembre : André Kailao, militaire tchadien, compagnon de la Libération (° vers 1918).
 4 septembre : Albert Schweitzer, médecin et théologien français (° 14 janvier 1875).
 16 septembre : Gabriel Pradal, homme politique, journaliste et architecte espagnol (° 21 septembre 1891).
@@ -669,9 +992,43 @@
 Robustiano Patrón Costas, homme politique et entrepreneur argentin (° 5 août 1878).
 Paul Preyat, sculpteur et peintre français (° 16 janvier 1892).
 26 septembre : George Mathers, homme politique britannique (° 28 février 1886).
-27 septembre : Hector Dumas, peintre et illustrateur français (° 10 avril 1872).
-Octobre
-1er octobre : Walter Blattmann, coureur cycliste suisse (° 10 juin 1910).
+27 septembre : Hector Dumas, peintre et illustrateur français (° 10 avril 1872).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1965</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1965</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1er octobre : Walter Blattmann, coureur cycliste suisse (° 10 juin 1910).
 6 octobre : Otto Maier, footballeur allemand, cofondateur du FC Barcelone (° 2 septembre 1877).
 7 octobre : Paul Antoine Hallez, peintre français (° 27 janvier 1872).
 8 octobre : Orens Denizard, peintre français (° 8 mai 1879).
@@ -684,9 +1041,43 @@
 28 octobre : Émile Daru, écrivain, journaliste et professeur français (° 17 mai 1877).
 29 octobre : Henri Burda, joueur et entraîneur de football français d'origine polonaise (° 4 janvier 1926).
 31 octobre : Jules Valle, homme politique français (° 26 avril 1894).
-? octobre : Lucien Biva, peintre franco-américain (° 13 août 1878).
-Novembre
-1er novembre : Said Souchinski, chanteur russe, azerbaïdjanais puis soviétique (° 12 avril 1889).
+? octobre : Lucien Biva, peintre franco-américain (° 13 août 1878).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1965</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1965</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er novembre : Said Souchinski, chanteur russe, azerbaïdjanais puis soviétique (° 12 avril 1889).
 4 novembre : Carey D. Miller, scientifique américaine (° 1895).
 6 novembre : Edgard Varèse, compositeur américain  d'origine française (° 22 décembre 1883).
 7 novembre : Marguerite Jeanne Carpentier, peintre, sculptrice et graveuse française (° 8 septembre 1886).
@@ -694,9 +1085,43 @@
 13 novembre : Maurice Mathurin, peintre français (° 20 mai 1884).
 19 novembre : Thaddée Nya Nana, libraire, planteur de café et homme politique camerounais (° 1921).
 23 novembre : Herbert Windt, compositeur allemand (° 15 septembre 1894).
-29 novembre : Nicolás Repetto, médecin et homme politique argentin (° 21 octobre 1871).
-Décembre
-5 décembre : Albert Jakob Welti, écrivain et  peintre suisse (° 11 octobre 1894).
+29 novembre : Nicolás Repetto, médecin et homme politique argentin (° 21 octobre 1871).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1965</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1965</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>5 décembre : Albert Jakob Welti, écrivain et  peintre suisse (° 11 octobre 1894).
 7 décembre : Robert Dugas-Vialis, peintre français (° 16 décembre 1883).
 8 décembre : André Rosseel, coureur cycliste belge (° 23 novembre 1924).
 16 décembre : Somerset Maugham, écrivain britannique (° 25 janvier 1874).
